--- a/frontend/public/template_varian.xlsx
+++ b/frontend/public/template_varian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abazm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abazm\Desktop\Kerjaan\POS-ASB\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BE417C-F37B-4CD2-9D64-953431F95271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA20B6E-171A-46CE-98C5-AC0A9E80ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A088B7-662E-49F6-8D53-01E0577CFFF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nama Varian</t>
   </si>
@@ -85,12 +85,21 @@
       <t>, lihat pada data yang tersedia pada menu Barang, Satuan dan Gudang sebagai referensi mengisi data tersebut</t>
     </r>
   </si>
+  <si>
+    <t>Kategori (J / S)</t>
+  </si>
+  <si>
+    <t>*J = Jual</t>
+  </si>
+  <si>
+    <t>*S = Sewa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +131,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -136,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,21 +176,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,10 +189,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -500,15 +512,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B187CC-8368-4F62-8EC6-88BD5D7FF9E9}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,138 +546,148 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>